--- a/Assets/Resources/Document/Excel/Monster.xlsx
+++ b/Assets/Resources/Document/Excel/Monster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>Prefabs/Monster/Mutant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,24 +485,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,43 +510,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -538,43 +557,46 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -582,43 +604,46 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>130</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>230</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>40</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>200</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -626,39 +651,42 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>160</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>310</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>55</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>350</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1002</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>15</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Assets/Resources/Document/Excel/Monster.xlsx
+++ b/Assets/Resources/Document/Excel/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,103 +42,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>atkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropRune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewingAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Warrok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Mutant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>moveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>atkRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropRune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warrok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>viewingAngle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>viewDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Warrok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Mutant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>characterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,13 +492,14 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
@@ -510,34 +515,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
@@ -551,49 +556,49 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -601,13 +606,13 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -619,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>230</v>
@@ -640,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -648,16 +653,16 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F4">
         <v>160</v>
@@ -666,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I4">
         <v>310</v>
@@ -687,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Document/Excel/Monster.xlsx
+++ b/Assets/Resources/Document/Excel/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -489,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,12 +498,12 @@
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,104 +511,98 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -624,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
         <v>230</v>
@@ -639,27 +629,24 @@
         <v>200</v>
       </c>
       <c r="M3">
-        <v>1001</v>
-      </c>
-      <c r="N3">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="N3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>3.5</v>
@@ -671,7 +658,7 @@
         <v>13</v>
       </c>
       <c r="H4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I4">
         <v>310</v>
@@ -686,13 +673,10 @@
         <v>350</v>
       </c>
       <c r="M4">
-        <v>1002</v>
-      </c>
-      <c r="N4">
         <v>15</v>
       </c>
-      <c r="O4" t="s">
-        <v>24</v>
+      <c r="N4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Document/Excel/Monster.xlsx
+++ b/Assets/Resources/Document/Excel/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I3">
         <v>230</v>
@@ -658,7 +658,7 @@
         <v>13</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="I4">
         <v>310</v>

--- a/Assets/Resources/Document/Excel/Monster.xlsx
+++ b/Assets/Resources/Document/Excel/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,7 @@
         <v>200</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>24</v>
@@ -673,7 +673,7 @@
         <v>350</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
